--- a/resources/excel/template-bast.xlsx
+++ b/resources/excel/template-bast.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1 Project Iseng\4form-multitenant-v2.5\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C619A62-1128-4B73-B6B5-AECFF6632238}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D538D19C-2A1E-4456-8404-E94F94DD375D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{5338BA7F-2468-4964-8203-3D2AC58E786D}"/>
   </bookViews>
@@ -552,41 +552,41 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -907,8 +907,8 @@
   </sheetPr>
   <dimension ref="A1:J55"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="117" zoomScaleNormal="80" zoomScaleSheetLayoutView="117" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25:I25"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A40" zoomScale="117" zoomScaleNormal="80" zoomScaleSheetLayoutView="117" workbookViewId="0">
+      <selection activeCell="L43" sqref="L43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -927,296 +927,296 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
       <c r="J1" s="10"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
       <c r="J2" s="9"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
       <c r="J3" s="9"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
       <c r="J4" s="9"/>
     </row>
     <row r="5" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
       <c r="J5" s="9"/>
     </row>
     <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="24"/>
+      <c r="B6" s="16"/>
       <c r="C6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="24" t="s">
+      <c r="D6" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="24"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
       <c r="J6" s="11"/>
     </row>
     <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="B7" s="21"/>
+      <c r="B7" s="18"/>
       <c r="C7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="24" t="s">
+      <c r="D7" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="24"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
       <c r="J7" s="11"/>
     </row>
     <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="B8" s="21"/>
+      <c r="B8" s="18"/>
       <c r="C8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="24" t="s">
+      <c r="D8" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="24"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
       <c r="J8" s="11"/>
     </row>
     <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="B9" s="21"/>
+      <c r="B9" s="18"/>
       <c r="C9" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="24" t="s">
+      <c r="D9" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="24"/>
-      <c r="I9" s="24"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
       <c r="J9" s="11"/>
     </row>
     <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="B10" s="21"/>
+      <c r="B10" s="18"/>
       <c r="C10" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="24" t="s">
+      <c r="D10" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="24"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
       <c r="J10" s="11"/>
     </row>
     <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="21" t="s">
+      <c r="A11" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="B11" s="21"/>
+      <c r="B11" s="18"/>
       <c r="C11" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="24" t="s">
+      <c r="D11" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="24"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
       <c r="J11" s="11"/>
     </row>
     <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="21" t="s">
+      <c r="A12" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="21"/>
+      <c r="B12" s="18"/>
       <c r="C12" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="24" t="s">
+      <c r="D12" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="24"/>
-      <c r="I12" s="24"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
       <c r="J12" s="11"/>
     </row>
     <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="21" t="s">
+      <c r="A13" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="21"/>
+      <c r="B13" s="18"/>
       <c r="C13" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="24" t="s">
+      <c r="D13" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="24"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
       <c r="J13" s="11"/>
     </row>
     <row r="14" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="26" t="s">
+      <c r="A14" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="26"/>
+      <c r="B14" s="23"/>
       <c r="C14" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="23" t="s">
+      <c r="D14" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="E14" s="23"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="23"/>
-      <c r="I14" s="23"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
       <c r="J14" s="11"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="21" t="s">
+      <c r="A15" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="21"/>
+      <c r="B15" s="18"/>
       <c r="C15" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="24" t="s">
+      <c r="D15" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="E15" s="24"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="24"/>
-      <c r="I15" s="24"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
       <c r="J15" s="11"/>
     </row>
     <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="21" t="s">
+      <c r="A16" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="21"/>
+      <c r="B16" s="18"/>
       <c r="C16" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="24" t="s">
+      <c r="D16" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="E16" s="24"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="24"/>
-      <c r="I16" s="24"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
       <c r="J16" s="11"/>
     </row>
     <row r="17" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="21" t="s">
+      <c r="A17" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="21"/>
+      <c r="B17" s="18"/>
       <c r="C17" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="24" t="s">
+      <c r="D17" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="24"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
       <c r="J17" s="11"/>
     </row>
     <row r="18" spans="1:10" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="27" t="s">
+      <c r="A18" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="27"/>
+      <c r="B18" s="24"/>
       <c r="C18" s="15" t="s">
         <v>11</v>
       </c>
@@ -1241,16 +1241,16 @@
       <c r="H19" s="5"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="19" t="s">
+      <c r="A20" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="19"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="19"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="21"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
@@ -1272,10 +1272,10 @@
       <c r="C22" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D22" s="21" t="s">
+      <c r="D22" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="E22" s="21"/>
+      <c r="E22" s="18"/>
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
@@ -1288,10 +1288,10 @@
       <c r="C23" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D23" s="25" t="s">
+      <c r="D23" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="E23" s="25"/>
+      <c r="E23" s="20"/>
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
@@ -1307,17 +1307,17 @@
       <c r="H24" s="5"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="20" t="s">
+      <c r="A25" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="B25" s="20"/>
-      <c r="C25" s="20"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="20"/>
-      <c r="G25" s="20"/>
-      <c r="H25" s="20"/>
-      <c r="I25" s="20"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="22"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="5"/>
@@ -1339,10 +1339,10 @@
       <c r="C27" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D27" s="21" t="s">
+      <c r="D27" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="E27" s="21"/>
+      <c r="E27" s="18"/>
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
       <c r="H27" s="5"/>
@@ -1355,10 +1355,10 @@
       <c r="C28" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D28" s="21" t="s">
+      <c r="D28" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="E28" s="21"/>
+      <c r="E28" s="18"/>
       <c r="F28" s="5"/>
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
@@ -1374,17 +1374,17 @@
       <c r="H29" s="5"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="20" t="s">
+      <c r="A30" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="B30" s="20"/>
-      <c r="C30" s="20"/>
-      <c r="D30" s="20"/>
-      <c r="E30" s="20"/>
-      <c r="F30" s="20"/>
-      <c r="G30" s="20"/>
-      <c r="H30" s="20"/>
-      <c r="I30" s="20"/>
+      <c r="B30" s="22"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="22"/>
+      <c r="H30" s="22"/>
+      <c r="I30" s="22"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="5"/>
@@ -1397,17 +1397,17 @@
       <c r="H31" s="5"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="19" t="s">
+      <c r="A32" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="B32" s="19"/>
-      <c r="C32" s="19"/>
-      <c r="D32" s="19"/>
-      <c r="E32" s="19"/>
-      <c r="F32" s="19"/>
-      <c r="G32" s="19"/>
-      <c r="H32" s="19"/>
-      <c r="I32" s="19"/>
+      <c r="B32" s="21"/>
+      <c r="C32" s="21"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="21"/>
+      <c r="G32" s="21"/>
+      <c r="H32" s="21"/>
+      <c r="I32" s="21"/>
     </row>
     <row r="33" spans="1:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="5"/>
@@ -1420,16 +1420,16 @@
       <c r="H33" s="5"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="22" t="s">
+      <c r="A34" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="B34" s="22"/>
-      <c r="C34" s="22"/>
-      <c r="D34" s="22"/>
-      <c r="E34" s="22"/>
-      <c r="F34" s="22"/>
-      <c r="G34" s="22"/>
-      <c r="H34" s="22"/>
+      <c r="B34" s="17"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="17"/>
+      <c r="G34" s="17"/>
+      <c r="H34" s="17"/>
     </row>
     <row r="35" spans="1:9" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="5"/>
@@ -1442,17 +1442,17 @@
       <c r="H35" s="5"/>
     </row>
     <row r="36" spans="1:9" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="21" t="s">
+      <c r="A36" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="B36" s="21"/>
-      <c r="C36" s="21"/>
-      <c r="D36" s="21"/>
-      <c r="E36" s="21"/>
-      <c r="F36" s="21"/>
-      <c r="G36" s="21"/>
-      <c r="H36" s="21"/>
-      <c r="I36" s="21"/>
+      <c r="B36" s="18"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="18"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="18"/>
+      <c r="G36" s="18"/>
+      <c r="H36" s="18"/>
+      <c r="I36" s="18"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="5"/>
@@ -1465,16 +1465,16 @@
       <c r="H37" s="5"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="22" t="s">
+      <c r="A38" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="B38" s="22"/>
-      <c r="C38" s="22"/>
-      <c r="D38" s="22"/>
-      <c r="E38" s="22"/>
-      <c r="F38" s="22"/>
-      <c r="G38" s="22"/>
-      <c r="H38" s="22"/>
+      <c r="B38" s="17"/>
+      <c r="C38" s="17"/>
+      <c r="D38" s="17"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="17"/>
+      <c r="G38" s="17"/>
+      <c r="H38" s="17"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="5"/>
@@ -1487,188 +1487,187 @@
       <c r="H39" s="5"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="19" t="s">
+      <c r="A40" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="B40" s="19"/>
-      <c r="C40" s="19"/>
-      <c r="D40" s="19"/>
-      <c r="E40" s="19"/>
-      <c r="F40" s="19"/>
-      <c r="G40" s="19"/>
-      <c r="H40" s="19"/>
-      <c r="I40" s="19"/>
+      <c r="B40" s="21"/>
+      <c r="C40" s="21"/>
+      <c r="D40" s="21"/>
+      <c r="E40" s="21"/>
+      <c r="F40" s="21"/>
+      <c r="G40" s="21"/>
+      <c r="H40" s="21"/>
+      <c r="I40" s="21"/>
     </row>
     <row r="41" spans="1:9" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B41" s="17" t="s">
+      <c r="B41" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="C41" s="17"/>
-      <c r="D41" s="17"/>
-      <c r="E41" s="17"/>
-      <c r="F41" s="17"/>
-      <c r="G41" s="17"/>
-      <c r="H41" s="17"/>
-      <c r="I41" s="17"/>
+      <c r="C41" s="25"/>
+      <c r="D41" s="25"/>
+      <c r="E41" s="25"/>
+      <c r="F41" s="25"/>
+      <c r="G41" s="25"/>
+      <c r="H41" s="25"/>
+      <c r="I41" s="25"/>
     </row>
     <row r="42" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B42" s="17" t="s">
+      <c r="B42" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="C42" s="17"/>
-      <c r="D42" s="17"/>
-      <c r="E42" s="17"/>
-      <c r="F42" s="17"/>
-      <c r="G42" s="17"/>
-      <c r="H42" s="17"/>
-      <c r="I42" s="17"/>
+      <c r="C42" s="25"/>
+      <c r="D42" s="25"/>
+      <c r="E42" s="25"/>
+      <c r="F42" s="25"/>
+      <c r="G42" s="25"/>
+      <c r="H42" s="25"/>
+      <c r="I42" s="25"/>
     </row>
     <row r="43" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="B43" s="17" t="s">
+      <c r="B43" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="C43" s="17"/>
-      <c r="D43" s="17"/>
-      <c r="E43" s="17"/>
-      <c r="F43" s="17"/>
-      <c r="G43" s="17"/>
-      <c r="H43" s="17"/>
-      <c r="I43" s="17"/>
+      <c r="C43" s="25"/>
+      <c r="D43" s="25"/>
+      <c r="E43" s="25"/>
+      <c r="F43" s="25"/>
+      <c r="G43" s="25"/>
+      <c r="H43" s="25"/>
+      <c r="I43" s="25"/>
     </row>
     <row r="44" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="B44" s="17" t="s">
+      <c r="B44" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="C44" s="17"/>
-      <c r="D44" s="17"/>
-      <c r="E44" s="17"/>
-      <c r="F44" s="17"/>
-      <c r="G44" s="17"/>
-      <c r="H44" s="17"/>
-      <c r="I44" s="17"/>
+      <c r="C44" s="25"/>
+      <c r="D44" s="25"/>
+      <c r="E44" s="25"/>
+      <c r="F44" s="25"/>
+      <c r="G44" s="25"/>
+      <c r="H44" s="25"/>
+      <c r="I44" s="25"/>
     </row>
     <row r="45" spans="1:9" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B45" s="16" t="s">
+      <c r="B45" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="C45" s="16"/>
-      <c r="D45" s="16"/>
-      <c r="E45" s="16"/>
-      <c r="F45" s="16"/>
-      <c r="G45" s="16"/>
-      <c r="H45" s="16"/>
-      <c r="I45" s="16"/>
+      <c r="C45" s="26"/>
+      <c r="D45" s="26"/>
+      <c r="E45" s="26"/>
+      <c r="F45" s="26"/>
+      <c r="G45" s="26"/>
+      <c r="H45" s="26"/>
+      <c r="I45" s="26"/>
     </row>
     <row r="46" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="17" t="s">
+      <c r="B46" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="C46" s="17"/>
-      <c r="D46" s="17"/>
-      <c r="E46" s="17"/>
-      <c r="F46" s="17"/>
-      <c r="G46" s="17"/>
-      <c r="H46" s="17"/>
-      <c r="I46" s="17"/>
+      <c r="C46" s="25"/>
+      <c r="D46" s="25"/>
+      <c r="E46" s="25"/>
+      <c r="F46" s="25"/>
+      <c r="G46" s="25"/>
+      <c r="H46" s="25"/>
+      <c r="I46" s="25"/>
     </row>
     <row r="47" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="18" t="s">
+      <c r="A47" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="B47" s="18"/>
-      <c r="C47" s="18"/>
-      <c r="D47" s="18"/>
+      <c r="B47" s="27"/>
+      <c r="C47" s="27"/>
+      <c r="D47" s="27"/>
       <c r="E47" s="11"/>
-      <c r="F47" s="18" t="s">
+      <c r="F47" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="G47" s="18"/>
-      <c r="H47" s="18"/>
-      <c r="I47" s="18"/>
+      <c r="G47" s="27"/>
+      <c r="H47" s="27"/>
+      <c r="I47" s="27"/>
     </row>
     <row r="48" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="18" t="s">
+      <c r="A48" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="B48" s="18"/>
-      <c r="C48" s="18"/>
-      <c r="D48" s="18"/>
+      <c r="B48" s="27"/>
+      <c r="C48" s="27"/>
+      <c r="D48" s="27"/>
       <c r="E48" s="11"/>
-      <c r="F48" s="18" t="s">
+      <c r="F48" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="G48" s="18"/>
-      <c r="H48" s="18"/>
-      <c r="I48" s="18"/>
+      <c r="G48" s="27"/>
+      <c r="H48" s="27"/>
+      <c r="I48" s="27"/>
     </row>
     <row r="54" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="18" t="s">
+      <c r="A54" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="B54" s="18"/>
-      <c r="C54" s="18"/>
-      <c r="D54" s="18"/>
+      <c r="B54" s="27"/>
+      <c r="C54" s="27"/>
+      <c r="D54" s="27"/>
       <c r="E54" s="11"/>
-      <c r="F54" s="18" t="s">
+      <c r="F54" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="G54" s="18"/>
-      <c r="H54" s="18"/>
-      <c r="I54" s="18"/>
+      <c r="G54" s="27"/>
+      <c r="H54" s="27"/>
+      <c r="I54" s="27"/>
     </row>
     <row r="55" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="18" t="s">
+      <c r="A55" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="B55" s="18"/>
-      <c r="C55" s="18"/>
-      <c r="D55" s="18"/>
+      <c r="B55" s="27"/>
+      <c r="C55" s="27"/>
+      <c r="D55" s="27"/>
       <c r="E55" s="11"/>
-      <c r="F55" s="18" t="s">
+      <c r="F55" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="G55" s="18"/>
-      <c r="H55" s="18"/>
-      <c r="I55" s="18"/>
+      <c r="G55" s="27"/>
+      <c r="H55" s="27"/>
+      <c r="I55" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="56">
-    <mergeCell ref="D6:I6"/>
-    <mergeCell ref="D7:I7"/>
-    <mergeCell ref="D8:I8"/>
-    <mergeCell ref="D12:I12"/>
-    <mergeCell ref="D13:I13"/>
-    <mergeCell ref="D9:I9"/>
-    <mergeCell ref="D10:I10"/>
-    <mergeCell ref="D11:I11"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="A5:I5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="B45:I45"/>
+    <mergeCell ref="B46:I46"/>
+    <mergeCell ref="F48:I48"/>
+    <mergeCell ref="F54:I54"/>
+    <mergeCell ref="F55:I55"/>
+    <mergeCell ref="A48:D48"/>
+    <mergeCell ref="A54:D54"/>
+    <mergeCell ref="A55:D55"/>
+    <mergeCell ref="F47:I47"/>
+    <mergeCell ref="A47:D47"/>
+    <mergeCell ref="A40:I40"/>
+    <mergeCell ref="B41:I41"/>
+    <mergeCell ref="B42:I42"/>
+    <mergeCell ref="B43:I43"/>
+    <mergeCell ref="B44:I44"/>
+    <mergeCell ref="A30:I30"/>
+    <mergeCell ref="A32:I32"/>
+    <mergeCell ref="A36:I36"/>
+    <mergeCell ref="A34:H34"/>
+    <mergeCell ref="A38:H38"/>
     <mergeCell ref="D14:I14"/>
     <mergeCell ref="D15:I15"/>
     <mergeCell ref="D16:I16"/>
@@ -1684,26 +1683,27 @@
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A30:I30"/>
-    <mergeCell ref="A32:I32"/>
-    <mergeCell ref="A36:I36"/>
-    <mergeCell ref="A34:H34"/>
-    <mergeCell ref="A38:H38"/>
-    <mergeCell ref="A40:I40"/>
-    <mergeCell ref="B41:I41"/>
-    <mergeCell ref="B42:I42"/>
-    <mergeCell ref="B43:I43"/>
-    <mergeCell ref="B44:I44"/>
-    <mergeCell ref="B45:I45"/>
-    <mergeCell ref="B46:I46"/>
-    <mergeCell ref="F48:I48"/>
-    <mergeCell ref="F54:I54"/>
-    <mergeCell ref="F55:I55"/>
-    <mergeCell ref="A48:D48"/>
-    <mergeCell ref="A54:D54"/>
-    <mergeCell ref="A55:D55"/>
-    <mergeCell ref="F47:I47"/>
-    <mergeCell ref="A47:D47"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="A5:I5"/>
+    <mergeCell ref="D6:I6"/>
+    <mergeCell ref="D7:I7"/>
+    <mergeCell ref="D8:I8"/>
+    <mergeCell ref="D12:I12"/>
+    <mergeCell ref="D13:I13"/>
+    <mergeCell ref="D9:I9"/>
+    <mergeCell ref="D10:I10"/>
+    <mergeCell ref="D11:I11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="65" orientation="portrait" r:id="rId1"/>
